--- a/src/semeio/fmudesign/examples/ex8_mc_with_correls.xlsx
+++ b/src/semeio/fmudesign/examples/ex8_mc_with_correls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Appl\github\semeio\src\semeio\fmudesign\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D9F080-852E-43E7-A8A3-E6B64C930CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5775CC7-9656-4127-B71D-4E47201F18BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
@@ -96,47 +96,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Default number of realisations per sensitivity/scenario. Typically &gt; 1 for repeating seeds</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Default is using seeds 1000-1001-1002-1003.
-Alternatives:
-- None: seed number is not added as parameter in spreadsheet
-- filename for file with list of seeds.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
@@ -203,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>designtype</t>
   </si>
@@ -395,6 +354,9 @@
   </si>
   <si>
     <t>NTG6</t>
+  </si>
+  <si>
+    <t>correlation_iterations</t>
   </si>
 </sst>
 </file>
@@ -513,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,9 +493,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -564,6 +523,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -660,8 +625,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>218565</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>551940</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
@@ -717,8 +682,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>218565</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>551940</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
@@ -1318,22 +1283,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1341,7 +1306,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
@@ -1349,7 +1314,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1357,11 +1322,19 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1345,6 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1381,7 +1353,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,55 +1376,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1798,60 +1770,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1865,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,49 +1850,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>-0.7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>-0.7</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1934,22 +1907,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B2">
@@ -1957,7 +1931,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B3">
@@ -1977,28 +1951,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B2">
@@ -2045,22 +2020,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="1000" max="1024" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2068,7 +2043,7 @@
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>1000</v>
       </c>
     </row>
@@ -2076,7 +2051,7 @@
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2084,7 +2059,7 @@
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2092,7 +2067,7 @@
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2100,7 +2075,7 @@
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -2108,7 +2083,7 @@
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>0.05</v>
       </c>
     </row>
@@ -2116,7 +2091,7 @@
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>0.02</v>
       </c>
     </row>
@@ -2124,7 +2099,7 @@
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>1E-3</v>
       </c>
     </row>
@@ -2132,76 +2107,76 @@
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>0.1</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>0.25</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>0.45</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>0.8</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>0.01</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2209,7 +2184,7 @@
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2227,43 +2202,43 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
